--- a/biology/Botanique/Persoonia_gunnii/Persoonia_gunnii.xlsx
+++ b/biology/Botanique/Persoonia_gunnii/Persoonia_gunnii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Persoonia gunnii est une espèce du genre Persoonia et de la famille des Proteaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Persoonia gunnii est un arbuste ligneux d'environ 3,5 m de hauteur avec une nouvelle croissance couverte de poils blanchâtres. Les feuilles étroites plates ou convexes sont obovales (en forme d'œuf) ou spathulées (en forme de cuillère) et mesurent de 1 à 5 cm de longueur et de 0,3 à 1 cm de diamètre. Les fleurs crème sont à l'extérieur et apparaissent de décembre à mai puis laissent la place à de petits fruits pourpres foncés.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Persoonia gunnii se trouve en Tasmanie, au sud et à l'ouest du lac Saint Clair et de la Derwent River, entre 500 et 1 300 m d'altitude. Les habitats comprennent la lande alpine et les forêts décidues humides tropicales et subtropicales, sur des sols composés de dolérite, de quartzite et de calcaire.
 </t>
@@ -573,9 +589,11 @@
           <t>Médecine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Persoonia gunnii aide à la digestion[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Persoonia gunnii aide à la digestion.
 </t>
         </is>
       </c>
